--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/113.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/113.xlsx
@@ -479,13 +479,13 @@
         <v>0.06805628178142778</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.275177305701825</v>
+        <v>-1.362146530284892</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1238261745259816</v>
+        <v>0.142434487444613</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08537142790762831</v>
+        <v>0.1031285327892599</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.09277822265029724</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.261460153887737</v>
+        <v>-1.327334603653356</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03269289278764245</v>
+        <v>0.05021638997472866</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1136087579858025</v>
+        <v>0.1353284333861604</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1024890574593611</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.267703319524463</v>
+        <v>-1.337010342351808</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02349267784670609</v>
+        <v>-0.03271872173315817</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08096646281735677</v>
+        <v>0.1188926720268011</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.08549441309519581</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.329107102035719</v>
+        <v>-1.370563707528981</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03169960816570389</v>
+        <v>-0.04054895964470152</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1042118884727142</v>
+        <v>0.1256147334373448</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.04078958754355162</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.378236260246706</v>
+        <v>-1.39736289023761</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.008870296216255477</v>
+        <v>-0.026900430090887</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1044265155420777</v>
+        <v>0.1285742509176167</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.02484169375894725</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.197615170968482</v>
+        <v>-1.267944227459463</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1444391334734306</v>
+        <v>0.07791204221117577</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03872727154736811</v>
+        <v>0.07111551834799577</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.09819837885971699</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8889887454641101</v>
+        <v>-0.9661230861068166</v>
       </c>
       <c r="F8" t="n">
-        <v>0.240749745742132</v>
+        <v>0.1914045004136908</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000538253681560179</v>
+        <v>0.02861351842164355</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1565439789644342</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5106888250615753</v>
+        <v>-0.5604326635188347</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3259245712214728</v>
+        <v>0.2650712268404892</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07620917421705557</v>
+        <v>-0.03899838857215648</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1661244461318243</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.09547596882468677</v>
+        <v>-0.09737111124668625</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3372895855611061</v>
+        <v>0.2643791640453984</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06184960124296852</v>
+        <v>-0.02807284870788668</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.09960981338073831</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5795203241314048</v>
+        <v>0.5941748268198553</v>
       </c>
       <c r="F11" t="n">
-        <v>0.188713631782146</v>
+        <v>0.09295053754753536</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1225496405744068</v>
+        <v>-0.07551565137387395</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.06179984961759456</v>
       </c>
       <c r="E12" t="n">
-        <v>1.364307853379558</v>
+        <v>1.372380459274192</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1495021283325814</v>
+        <v>-0.2389913959205573</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.017401357211435</v>
+        <v>0.01513289439828353</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3185945173903817</v>
       </c>
       <c r="E13" t="n">
-        <v>2.015974037891019</v>
+        <v>2.079826321050729</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6077922434436401</v>
+        <v>-0.6879678642597095</v>
       </c>
       <c r="G13" t="n">
-        <v>0.113746002506348</v>
+        <v>0.1323951967715248</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6502314584619849</v>
       </c>
       <c r="E14" t="n">
-        <v>2.72077429252683</v>
+        <v>2.801988007535535</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.220334979311112</v>
+        <v>-1.241072042346288</v>
       </c>
       <c r="G14" t="n">
-        <v>0.186763007532692</v>
+        <v>0.2422433749391316</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.021928283256946</v>
       </c>
       <c r="E15" t="n">
-        <v>3.404386329267374</v>
+        <v>3.494011381327804</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.800606272225229</v>
+        <v>-1.82078048672136</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3611818125207361</v>
+        <v>0.4006366920813618</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.393019593730661</v>
       </c>
       <c r="E16" t="n">
-        <v>4.00255635172794</v>
+        <v>4.092980050094098</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.46940831115564</v>
+        <v>-2.483635019753454</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5812125198687679</v>
+        <v>0.5973372909847635</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.738282373862537</v>
       </c>
       <c r="E17" t="n">
-        <v>4.586143413856511</v>
+        <v>4.67592761115885</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.083584840836839</v>
+        <v>-3.131764967788735</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7777758742516242</v>
+        <v>0.8158802093281594</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.047879854737493</v>
       </c>
       <c r="E18" t="n">
-        <v>5.146555132638087</v>
+        <v>5.252921096108877</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.761701986587248</v>
+        <v>-3.826468989875912</v>
       </c>
       <c r="G18" t="n">
-        <v>1.042840304915644</v>
+        <v>1.063410922468457</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.314572870841119</v>
       </c>
       <c r="E19" t="n">
-        <v>5.658639259610586</v>
+        <v>5.773693969270374</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.373318321941038</v>
+        <v>-4.437359681328521</v>
       </c>
       <c r="G19" t="n">
-        <v>1.274672580982491</v>
+        <v>1.295057772427758</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.534834568014328</v>
       </c>
       <c r="E20" t="n">
-        <v>6.009211406718674</v>
+        <v>6.15080833062309</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.877548850232539</v>
+        <v>-4.992834977514735</v>
       </c>
       <c r="G20" t="n">
-        <v>1.488623648079979</v>
+        <v>1.496728375032613</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.703414195284527</v>
       </c>
       <c r="E21" t="n">
-        <v>6.394810107527661</v>
+        <v>6.476787427687912</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.259109788046119</v>
+        <v>-5.418450676399348</v>
       </c>
       <c r="G21" t="n">
-        <v>1.697528788975286</v>
+        <v>1.721092505114462</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.819417722132182</v>
       </c>
       <c r="E22" t="n">
-        <v>6.73805719336366</v>
+        <v>6.794707059290918</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.449216809770976</v>
+        <v>-5.616347054689204</v>
       </c>
       <c r="G22" t="n">
-        <v>1.771154634055539</v>
+        <v>1.807648536087802</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.888182308339469</v>
       </c>
       <c r="E23" t="n">
-        <v>6.869046867887625</v>
+        <v>6.973238819751051</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.689731991834457</v>
+        <v>-5.809351541850471</v>
       </c>
       <c r="G23" t="n">
-        <v>1.914763504229228</v>
+        <v>1.932700195026041</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.912788181798651</v>
       </c>
       <c r="E24" t="n">
-        <v>7.066525672423481</v>
+        <v>7.150310532120277</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.641583985940561</v>
+        <v>-5.765573459892664</v>
       </c>
       <c r="G24" t="n">
-        <v>1.97942173393512</v>
+        <v>1.999697421773569</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.898665813743051</v>
       </c>
       <c r="E25" t="n">
-        <v>7.09359788412511</v>
+        <v>7.18600140770254</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.600734760453117</v>
+        <v>-5.718043784365268</v>
       </c>
       <c r="G25" t="n">
-        <v>1.963984645469942</v>
+        <v>1.983061633825755</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.850699729453765</v>
       </c>
       <c r="E26" t="n">
-        <v>7.077055539255115</v>
+        <v>7.172430260697544</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.480302693674513</v>
+        <v>-5.569832842609035</v>
       </c>
       <c r="G26" t="n">
-        <v>1.894587099660961</v>
+        <v>1.919698466776499</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.776957399995847</v>
       </c>
       <c r="E27" t="n">
-        <v>6.959591750245328</v>
+        <v>7.034045442593126</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.406317676763897</v>
+        <v>-5.469480087200653</v>
       </c>
       <c r="G27" t="n">
-        <v>1.873595988257966</v>
+        <v>1.887380302284235</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.686441387784388</v>
       </c>
       <c r="E28" t="n">
-        <v>6.907911888019523</v>
+        <v>6.982615248590867</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.223798524967491</v>
+        <v>-5.278166335728659</v>
       </c>
       <c r="G28" t="n">
-        <v>1.816654112712527</v>
+        <v>1.831844453050341</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.587007762541953</v>
       </c>
       <c r="E29" t="n">
-        <v>6.730516044974117</v>
+        <v>6.799694583569462</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.111999722550431</v>
+        <v>-5.140190331089696</v>
       </c>
       <c r="G29" t="n">
-        <v>1.779209719373082</v>
+        <v>1.764743562888359</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.485154334986035</v>
       </c>
       <c r="E30" t="n">
-        <v>6.645421522139776</v>
+        <v>6.715187000067666</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.059877465753081</v>
+        <v>-5.070899368791351</v>
       </c>
       <c r="G30" t="n">
-        <v>1.745336603664001</v>
+        <v>1.719473311781644</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.383121261589189</v>
       </c>
       <c r="E31" t="n">
-        <v>6.438319540636741</v>
+        <v>6.458295918616553</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.888001334515354</v>
+        <v>-4.875454411246131</v>
       </c>
       <c r="G31" t="n">
-        <v>1.620150620301398</v>
+        <v>1.609296622793583</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.284567425368977</v>
       </c>
       <c r="E32" t="n">
-        <v>6.177295063040265</v>
+        <v>6.20391027968944</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.688664618783817</v>
+        <v>-4.690077945335816</v>
       </c>
       <c r="G32" t="n">
-        <v>1.501933446476702</v>
+        <v>1.473861101832801</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.18942401646558</v>
       </c>
       <c r="E33" t="n">
-        <v>5.941246168086874</v>
+        <v>5.957119810931234</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.491803414590415</v>
+        <v>-4.487211563344507</v>
       </c>
       <c r="G33" t="n">
-        <v>1.487646875907161</v>
+        <v>1.452580900907807</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.095406101833017</v>
       </c>
       <c r="E34" t="n">
-        <v>5.593995630385604</v>
+        <v>5.632647483496229</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.355993391294316</v>
+        <v>-4.370813609441084</v>
       </c>
       <c r="G34" t="n">
-        <v>1.41137250359</v>
+        <v>1.369940718914283</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.00151378716639</v>
       </c>
       <c r="E35" t="n">
-        <v>5.313732099095224</v>
+        <v>5.310283465504498</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.244266861257755</v>
+        <v>-4.264037372456749</v>
       </c>
       <c r="G35" t="n">
-        <v>1.378938995298554</v>
+        <v>1.336134765417383</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.90455416338199</v>
       </c>
       <c r="E36" t="n">
-        <v>4.999757517433854</v>
+        <v>4.977921038186223</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.147398510618326</v>
+        <v>-4.182645531580953</v>
       </c>
       <c r="G36" t="n">
-        <v>1.29358312385594</v>
+        <v>1.248587361790316</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.80582246143054</v>
       </c>
       <c r="E37" t="n">
-        <v>4.627521176752863</v>
+        <v>4.619280665327775</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.090529637477432</v>
+        <v>-4.096391000538385</v>
       </c>
       <c r="G37" t="n">
-        <v>1.198395288569148</v>
+        <v>1.173151057077336</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.705118309367037</v>
       </c>
       <c r="E38" t="n">
-        <v>4.328843518939943</v>
+        <v>4.290826786748863</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.989535190933096</v>
+        <v>-4.017392908507634</v>
       </c>
       <c r="G38" t="n">
-        <v>1.166142826240975</v>
+        <v>1.133339925782529</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.600777230517544</v>
       </c>
       <c r="E39" t="n">
-        <v>3.953960111070135</v>
+        <v>3.958960775781497</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.845223307603634</v>
+        <v>-3.884613215024215</v>
       </c>
       <c r="G39" t="n">
-        <v>1.089157410503541</v>
+        <v>1.055466800805822</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.493490875632923</v>
       </c>
       <c r="E40" t="n">
-        <v>3.636871246830856</v>
+        <v>3.625901905523859</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.748776180838433</v>
+        <v>-3.774730725726472</v>
       </c>
       <c r="G40" t="n">
-        <v>1.005039659842018</v>
+        <v>0.9692714017109364</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.3829826312614</v>
       </c>
       <c r="E41" t="n">
-        <v>3.415457873940734</v>
+        <v>3.392759966319467</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.724173640482576</v>
+        <v>-3.740413025373708</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9190880887783135</v>
+        <v>0.8897776233533214</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.27024682834088</v>
       </c>
       <c r="E42" t="n">
-        <v>3.092486475943184</v>
+        <v>3.079300781634188</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.649839672078232</v>
+        <v>-3.684337688370223</v>
       </c>
       <c r="G42" t="n">
-        <v>0.865365619273328</v>
+        <v>0.8358317664904268</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.15612428149816</v>
       </c>
       <c r="E43" t="n">
-        <v>2.93596640050159</v>
+        <v>2.898289859515691</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.580644342929842</v>
+        <v>-3.618314313699332</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8429874621839704</v>
+        <v>0.8117482732308878</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.039761243591422</v>
       </c>
       <c r="E44" t="n">
-        <v>2.698069084665109</v>
+        <v>2.654361085015666</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.559014460487075</v>
+        <v>-3.563685884353937</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7561189809191755</v>
+        <v>0.7305681393282732</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9239142850560071</v>
       </c>
       <c r="E45" t="n">
-        <v>2.50162983436998</v>
+        <v>2.465855736046535</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.445754149931014</v>
+        <v>-3.461694954987556</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6560531249606569</v>
+        <v>0.6237773018630292</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8083653529315421</v>
       </c>
       <c r="E46" t="n">
-        <v>2.287970776890673</v>
+        <v>2.242242070683413</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.373144498322034</v>
+        <v>-3.377544353243987</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6717749228035618</v>
+        <v>0.6322587212231178</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6945409164482045</v>
       </c>
       <c r="E47" t="n">
-        <v>1.991630656071298</v>
+        <v>1.999606898791932</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.321513547707275</v>
+        <v>-3.313017527866277</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5697978638940436</v>
+        <v>0.5354925739500529</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5851883922182637</v>
       </c>
       <c r="E48" t="n">
-        <v>1.792285910075261</v>
+        <v>1.810225520968256</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.224928446397483</v>
+        <v>-3.222084272716393</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4679682698417074</v>
+        <v>0.4271088240176275</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4817263956315231</v>
       </c>
       <c r="E49" t="n">
-        <v>1.62524764818676</v>
+        <v>1.67372270485302</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.157802735417955</v>
+        <v>-3.156418609827774</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3905302391960918</v>
+        <v>0.3671592494049163</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3889255566396738</v>
       </c>
       <c r="E50" t="n">
-        <v>1.484986668285525</v>
+        <v>1.534667724674875</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.101723748294243</v>
+        <v>-3.084376916926157</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2942152467831177</v>
+        <v>0.2871982556582105</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3080275798067319</v>
       </c>
       <c r="E51" t="n">
-        <v>1.351736839316834</v>
+        <v>1.423791672651269</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.011115353844586</v>
+        <v>-2.997206935730589</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2694484510170334</v>
+        <v>0.2463840713249487</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.238964572362527</v>
       </c>
       <c r="E52" t="n">
-        <v>1.19168344749524</v>
+        <v>1.256664347829223</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.892125084555754</v>
+        <v>-2.884312367221301</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2325515757116797</v>
+        <v>0.23134703603668</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1799536514737958</v>
       </c>
       <c r="E53" t="n">
-        <v>1.014600054741288</v>
+        <v>1.084590380075178</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.787603891847827</v>
+        <v>-2.753181068032518</v>
       </c>
       <c r="G53" t="n">
-        <v>0.147151902826339</v>
+        <v>0.1505990763689744</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1274539676189566</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9856400008581139</v>
+        <v>1.005825165714927</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.73038387714107</v>
+        <v>-2.706838411603031</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1097892721799854</v>
+        <v>0.1283873647619804</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.07955514911233987</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8072002234277073</v>
+        <v>0.87457560263078</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.761385078255334</v>
+        <v>-2.728945729771525</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07782005918144852</v>
+        <v>0.09825197216562485</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.03488045855616768</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6778107616113783</v>
+        <v>0.7685819514231721</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.662947175918179</v>
+        <v>-2.636900648000414</v>
       </c>
       <c r="G56" t="n">
-        <v>0.06477598953727021</v>
+        <v>0.08942452140799086</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.007026087908495019</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5951311583194006</v>
+        <v>0.6825851188686498</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.649423480476137</v>
+        <v>-2.621191260566281</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02243459490091794</v>
+        <v>0.05366940370972773</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.04463976941371192</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5675829709401352</v>
+        <v>0.6478111534874773</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.672657955770813</v>
+        <v>-2.647422484567547</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02705811528470514</v>
+        <v>0.00865028087464891</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.07804989290331227</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5230953056101472</v>
+        <v>0.618982503932485</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.642562714496957</v>
+        <v>-2.612543395723829</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.05013563540960803</v>
+        <v>0.00379124082810476</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1067319257910948</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5010938409282439</v>
+        <v>0.5705614690455889</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.643231416522593</v>
+        <v>-2.606646261484649</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1072147554755927</v>
+        <v>-0.03181641201297659</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1302776225463375</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3606824760736453</v>
+        <v>0.4358997735729888</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.690834094454535</v>
+        <v>-2.629612817954643</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.133516061785222</v>
+        <v>-0.06122908080433233</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1488963341155503</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3269466048851089</v>
+        <v>0.3989663970653623</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.688044672576854</v>
+        <v>-2.654505177856545</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1738805513064839</v>
+        <v>-0.09014241314859729</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1631669886494826</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2549092921277646</v>
+        <v>0.3342483053877433</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.783859598518692</v>
+        <v>-2.73137962993907</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2350755469407402</v>
+        <v>-0.1535070402459439</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1735031845868212</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1987806633689615</v>
+        <v>0.3056824644891146</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.780356213124557</v>
+        <v>-2.743293622360885</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2412340297881931</v>
+        <v>-0.1595735400636696</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1816423427677923</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1386836238990685</v>
+        <v>0.247899601243312</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.762034069631743</v>
+        <v>-2.746132685873657</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2781776266324559</v>
+        <v>-0.2017003076306582</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1887380454722347</v>
       </c>
       <c r="E66" t="n">
-        <v>0.09060278021735417</v>
+        <v>0.2036309431269602</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.860292386053717</v>
+        <v>-2.837886488050632</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2823577443167275</v>
+        <v>-0.211779019602201</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1961576797530444</v>
       </c>
       <c r="E67" t="n">
-        <v>0.05604344190554528</v>
+        <v>0.1911635924786908</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.859255021885126</v>
+        <v>-2.831997384075952</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2894959194331801</v>
+        <v>-0.2165533768594724</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2050790021558095</v>
       </c>
       <c r="E68" t="n">
-        <v>0.03280823658682424</v>
+        <v>0.1753702522793314</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.95515901076051</v>
+        <v>-2.928853324306608</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3637919265871602</v>
+        <v>-0.2820657346985457</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2150099463370152</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.009655802089164356</v>
+        <v>0.1220157148932548</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.969882865733279</v>
+        <v>-2.934194180223152</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3232901925453529</v>
+        <v>-0.2538021237547352</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2250579548455036</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.1088368689045923</v>
+        <v>0.04966449179636517</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.08261463888043</v>
+        <v>-3.033813991489898</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3873147613797902</v>
+        <v>-0.3068661115707209</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2339286992186188</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.1456753422863097</v>
+        <v>0.01492994771364722</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.179963345341767</v>
+        <v>-3.119427561420557</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4579650284507712</v>
+        <v>-0.3707855569426128</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2405757057991148</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.1657276427668497</v>
+        <v>0.01106812051319372</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.302665786901735</v>
+        <v>-3.224837923415846</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4795810404366745</v>
+        <v>-0.3968182144035149</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2450461646567482</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.1903046322811159</v>
+        <v>-0.01988051886979797</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.240704996043797</v>
+        <v>-3.177392200653677</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5160764025170284</v>
+        <v>-0.4231604020596897</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2469979913128476</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.2438518960151924</v>
+        <v>-0.03894436679279285</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.309893754975778</v>
+        <v>-3.235245876231889</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5706544602032865</v>
+        <v>-0.4740109569698578</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2472059461714818</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.1988429935167499</v>
+        <v>-0.0009101140246212502</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.32135221239323</v>
+        <v>-3.235209375029616</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6068432121845495</v>
+        <v>-0.529995040967661</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.246416208036475</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.243505864617647</v>
+        <v>-0.03274646264688543</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.236293460737116</v>
+        <v>-3.180204253276767</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6293221125921797</v>
+        <v>-0.5377843975326589</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2452932832060214</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.2291010301527418</v>
+        <v>0.004175233476013748</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.239891019233115</v>
+        <v>-3.201536285908989</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6006190271730056</v>
+        <v>-0.5400430919292947</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.244045614853834</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.1211932558979526</v>
+        <v>0.08325289812771978</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.16798876092418</v>
+        <v>-3.139462341324006</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6288344565298163</v>
+        <v>-0.5576512719056536</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.242575420056261</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.05423837054506148</v>
+        <v>0.1393304252033411</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.0922071548377</v>
+        <v>-3.0582084749928</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5888028579732816</v>
+        <v>-0.5358892551106594</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2414769688344687</v>
       </c>
       <c r="E80" t="n">
-        <v>0.03599552156927793</v>
+        <v>0.2377551871076783</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.025278550350445</v>
+        <v>-3.011986272530813</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6340935497532694</v>
+        <v>-0.5910615523699173</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2403749935190055</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1314388652719796</v>
+        <v>0.3249507191448367</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.910421677206976</v>
+        <v>-2.912260607777476</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5642682098536518</v>
+        <v>-0.5331064034493874</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2399620686107292</v>
       </c>
       <c r="E82" t="n">
-        <v>0.225414860643318</v>
+        <v>0.4135099360989039</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.753687704720064</v>
+        <v>-2.742117553623658</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5631030914771067</v>
+        <v>-0.5352395337102051</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2406047676104603</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5054447842391518</v>
+        <v>0.7092587374414607</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.667514936370587</v>
+        <v>-2.644202348503048</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.5406052104442945</v>
+        <v>-0.5025081756082138</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2429294759888667</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7679074092051723</v>
+        <v>0.9666535354839372</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.49163681331568</v>
+        <v>-2.450367093978055</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.5321675925269331</v>
+        <v>-0.5139885337470289</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2478038851554131</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9770373975064798</v>
+        <v>1.164200962280066</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.266165236756877</v>
+        <v>-2.232597271098795</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.5279845547464798</v>
+        <v>-0.5142090010087561</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2552202664941472</v>
       </c>
       <c r="E86" t="n">
-        <v>1.302658782789029</v>
+        <v>1.472144085277892</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.157252219391497</v>
+        <v>-2.127359194778232</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.4660624551629509</v>
+        <v>-0.4633000441749516</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2646270999021837</v>
       </c>
       <c r="E87" t="n">
-        <v>1.602641723595221</v>
+        <v>1.762595832146632</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.993718802945222</v>
+        <v>-1.946981203507144</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.4404648920331396</v>
+        <v>-0.4186254926893272</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2745917348485329</v>
       </c>
       <c r="E88" t="n">
-        <v>1.803690345713349</v>
+        <v>1.975723432120848</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.740023036741063</v>
+        <v>-1.714853267701888</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.4400458582310488</v>
+        <v>-0.4310475818467785</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.284741844081447</v>
       </c>
       <c r="E89" t="n">
-        <v>2.017123095738564</v>
+        <v>2.168321295888796</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.596395185942193</v>
+        <v>-1.567889207015291</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.3462319281978012</v>
+        <v>-0.3568771388286166</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2952644827545994</v>
       </c>
       <c r="E90" t="n">
-        <v>2.145513884660712</v>
+        <v>2.280177040181403</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.41024927468797</v>
+        <v>-1.378845100300615</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.309758466838811</v>
+        <v>-0.3123281514788104</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.3065493544828368</v>
       </c>
       <c r="E91" t="n">
-        <v>2.207576148860968</v>
+        <v>2.319935609744937</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.215309493782204</v>
+        <v>-1.187032742405576</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.2948265550130878</v>
+        <v>-0.2833140758162727</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.3193815760312615</v>
       </c>
       <c r="E92" t="n">
-        <v>2.126575600873535</v>
+        <v>2.212781220305057</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.063629477761972</v>
+        <v>-1.040846887351433</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.2737726615421843</v>
+        <v>-0.2575894885025523</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.33482196715695</v>
       </c>
       <c r="E93" t="n">
-        <v>2.05583919096519</v>
+        <v>2.128711651230534</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.8596038175864816</v>
+        <v>-0.8592534060446635</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.2556724453591892</v>
+        <v>-0.2272759700391059</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.3535752551305157</v>
       </c>
       <c r="E94" t="n">
-        <v>1.924332659417044</v>
+        <v>1.987802409976936</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.8085006743565862</v>
+        <v>-0.7989110784954979</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.2104970973783832</v>
+        <v>-0.1726132295635751</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.378540821048658</v>
       </c>
       <c r="E95" t="n">
-        <v>1.836231897563522</v>
+        <v>1.855720619480971</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6047524233183682</v>
+        <v>-0.6110014291474575</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.179827327180755</v>
+        <v>-0.1628966095185778</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.4076486825958062</v>
       </c>
       <c r="E96" t="n">
-        <v>1.684404416686108</v>
+        <v>1.693926850335015</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4506750083328641</v>
+        <v>-0.477574934359766</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1505241619962174</v>
+        <v>-0.1305288033912228</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.4389211245177227</v>
       </c>
       <c r="E97" t="n">
-        <v>1.54034731174851</v>
+        <v>1.55410096476487</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2930628169192701</v>
+        <v>-0.3222258174870804</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1470784485016729</v>
+        <v>-0.1127439575958639</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.467755190047944</v>
       </c>
       <c r="E98" t="n">
-        <v>1.387788346777551</v>
+        <v>1.416789282007271</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1557657346425797</v>
+        <v>-0.179811266651755</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1464885890729458</v>
+        <v>-0.1402454234362202</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4921353323430459</v>
       </c>
       <c r="E99" t="n">
-        <v>1.257465914231132</v>
+        <v>1.287212934035306</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.002286939374348153</v>
+        <v>-0.04169363734797393</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2041123070768394</v>
+        <v>-0.1818275930652999</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.5109465054792888</v>
       </c>
       <c r="E100" t="n">
-        <v>1.219912017284869</v>
+        <v>1.242719428512954</v>
       </c>
       <c r="F100" t="n">
-        <v>0.08658034772690071</v>
+        <v>0.05275687365290979</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2177228753802903</v>
+        <v>-0.1951023503078418</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.5271481055680283</v>
       </c>
       <c r="E101" t="n">
-        <v>1.118133524915715</v>
+        <v>1.165386521329884</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1293115752035256</v>
+        <v>0.099017037365261</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1715561547457572</v>
+        <v>-0.173255650723575</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.5376473118625685</v>
       </c>
       <c r="E102" t="n">
-        <v>1.090326909024358</v>
+        <v>1.12927661194553</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1387274253417958</v>
+        <v>0.1322126907601612</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2536619591380079</v>
+        <v>-0.2391607614991027</v>
       </c>
     </row>
   </sheetData>
